--- a/Experiment result/Fig.6/data.xlsx
+++ b/Experiment result/Fig.6/data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C6B528-C795-457E-BBE7-031F6FEB7DDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +19,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>loss</t>
+    <t>HULA-int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base</t>
+    <t>HULA-data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pro</t>
+    <t>NEW-int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW-data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,128 +358,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5.0882969170900003E-3</v>
+        <v>0.01</v>
       </c>
       <c r="B2">
-        <v>0.9768</v>
+        <v>601.13929999999903</v>
       </c>
       <c r="C2">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>643.0788</v>
+      </c>
+      <c r="D2">
+        <v>26.451911999999801</v>
+      </c>
+      <c r="E2">
+        <v>924.96640000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.9175603842200001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="B3">
-        <v>0.96279999999999999</v>
+        <v>497.81644599999902</v>
       </c>
       <c r="C3">
-        <v>0.98240000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>685.05840000000001</v>
+      </c>
+      <c r="D3">
+        <v>18.462399999999899</v>
+      </c>
+      <c r="E3">
+        <v>919.68320000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.165432252443</v>
+        <v>0.03</v>
       </c>
       <c r="B4">
-        <v>0.94640000000000002</v>
+        <v>419.41738800000002</v>
       </c>
       <c r="C4">
-        <v>0.97760000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>723.99599999999998</v>
+      </c>
+      <c r="D4">
+        <v>13.960508000000001</v>
+      </c>
+      <c r="E4">
+        <v>905.45919999999796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.223261250731</v>
+        <v>0.04</v>
       </c>
       <c r="B5">
-        <v>0.91479999999999995</v>
+        <v>377.50016599999998</v>
       </c>
       <c r="C5">
-        <v>0.96760000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>734.13599999999997</v>
+      </c>
+      <c r="D5">
+        <v>11.74855600000002</v>
+      </c>
+      <c r="E5">
+        <v>898.95680000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.31096586782899999</v>
+        <v>0.05</v>
       </c>
       <c r="B6">
-        <v>0.89319999999999999</v>
+        <v>335.85116399999998</v>
       </c>
       <c r="C6">
-        <v>0.94320000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>719.73720000000003</v>
+      </c>
+      <c r="D6">
+        <v>10.059728000000019</v>
+      </c>
+      <c r="E6">
+        <v>918.46400000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.36530944625400003</v>
+        <v>0.06</v>
       </c>
       <c r="B7">
-        <v>0.86250000000000004</v>
+        <v>298.331063999999</v>
       </c>
       <c r="C7">
-        <v>0.93759999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>768.61199999999997</v>
+      </c>
+      <c r="D7">
+        <v>9.0723319999999195</v>
+      </c>
+      <c r="E7">
+        <v>911.55520000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.43644529123600001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
-        <v>0.82130000000000003</v>
+        <v>278.10234999999898</v>
       </c>
       <c r="C8">
-        <v>0.89359999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>764.75879999999995</v>
+      </c>
+      <c r="D8">
+        <v>8.0010840000000201</v>
+      </c>
+      <c r="E8">
+        <v>919.68320000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.51156019866400004</v>
+        <v>0.08</v>
       </c>
       <c r="B9">
-        <v>0.78120000000000001</v>
+        <v>253.49531199999899</v>
       </c>
       <c r="C9">
-        <v>0.86080000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>779.96879999999999</v>
+      </c>
+      <c r="D9">
+        <v>7.0589600000000203</v>
+      </c>
+      <c r="E9">
+        <v>918.46399999999801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.57536642238500002</v>
+        <v>0.09</v>
       </c>
       <c r="B10">
-        <v>0.72960000000000003</v>
+        <v>234.76871</v>
       </c>
       <c r="C10">
-        <v>0.80320000000000003</v>
+        <v>780.57719999999995</v>
+      </c>
+      <c r="D10">
+        <v>6.4751999999999601</v>
+      </c>
+      <c r="E10">
+        <v>911.96159999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>218.13415000000001</v>
+      </c>
+      <c r="C11">
+        <v>816.06719999999996</v>
+      </c>
+      <c r="D11">
+        <v>5.9266519999999998</v>
+      </c>
+      <c r="E11">
+        <v>899.36320000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>